--- a/documentation/03_詳細設計/02_API設計/02_メディア取得_API設計書.xlsx
+++ b/documentation/03_詳細設計/02_API設計/02_メディア取得_API設計書.xlsx
@@ -267,9 +267,6 @@
     <t>fileName</t>
   </si>
   <si>
-    <t>メディア種類</t>
-  </si>
-  <si>
     <t>メディア名</t>
   </si>
   <si>
@@ -290,6 +287,12 @@
   </si>
   <si>
     <t>メディアなし</t>
+  </si>
+  <si>
+    <t>メディア種類
+1. png
+2. jpg
+3. mp4</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -652,17 +655,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -670,35 +703,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -706,62 +766,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1080,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.65"/>
@@ -1138,35 +1144,35 @@
       <c r="A9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="33"/>
+      <c r="D9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35" t="s">
+      <c r="E9" s="33"/>
+      <c r="F9" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" spans="1:8" ht="20.05" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="46" t="s">
+      <c r="C10" s="53"/>
+      <c r="D10" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="55"/>
-      <c r="H10" s="57"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" ht="21.3">
       <c r="A11" s="14"/>
@@ -1202,50 +1208,50 @@
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="33"/>
     </row>
     <row r="17" spans="1:7" ht="21.3">
       <c r="A17" s="14"/>
       <c r="B17" s="9">
         <v>200</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="21.3">
       <c r="A18" s="14"/>
       <c r="B18" s="20">
         <v>400</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="41"/>
+      <c r="D18" s="35"/>
     </row>
     <row r="19" spans="1:7" s="24" customFormat="1" ht="21.3">
       <c r="A19" s="14"/>
       <c r="B19" s="20">
         <v>404</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="41"/>
+      <c r="D19" s="35"/>
     </row>
     <row r="20" spans="1:7" ht="21.3">
       <c r="A20" s="14"/>
       <c r="B20" s="11">
         <v>500</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="33"/>
+      <c r="D20" s="49"/>
     </row>
     <row r="21" spans="1:7" ht="21.3">
       <c r="A21" s="14"/>
@@ -1295,35 +1301,35 @@
     </row>
     <row r="29" spans="1:7" ht="21.3">
       <c r="A29" s="14"/>
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="38" t="s">
+      <c r="C29" s="42" t="s">
         <v>33</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="18"/>
-      <c r="F29" s="48" t="s">
+      <c r="F29" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" ht="21.3">
       <c r="A30" s="14"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="50"/>
-      <c r="G30" s="51"/>
-    </row>
-    <row r="31" spans="1:7" ht="21.3">
+      <c r="F30" s="46"/>
+      <c r="G30" s="47"/>
+    </row>
+    <row r="31" spans="1:7" ht="92.7" customHeight="1">
       <c r="A31" s="14"/>
       <c r="B31" s="10" t="s">
         <v>55</v>
@@ -1333,10 +1339,10 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="41"/>
+      <c r="F31" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" ht="21.3">
       <c r="A32" s="14"/>
@@ -1348,10 +1354,10 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
-      <c r="F32" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="33"/>
+      <c r="F32" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:9" ht="21.3">
       <c r="A33" s="14"/>
@@ -1369,41 +1375,41 @@
     </row>
     <row r="35" spans="1:9" ht="21.3">
       <c r="A35" s="14"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="38" t="s">
+      <c r="C35" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="38" t="s">
+      <c r="E35" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="17" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="18"/>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="49"/>
+      <c r="I35" s="45"/>
     </row>
     <row r="36" spans="1:9" ht="21.3">
       <c r="A36" s="14"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
       <c r="F36" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
     </row>
     <row r="37" spans="1:9" ht="21.3">
       <c r="A37" s="14"/>
@@ -1413,8 +1419,8 @@
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="41"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:9" ht="21.3">
       <c r="A38" s="14"/>
@@ -1424,8 +1430,8 @@
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="33"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" spans="1:9" ht="21.3">
       <c r="A39" s="14"/>
@@ -1438,47 +1444,47 @@
     </row>
     <row r="41" spans="1:9" ht="21.3">
       <c r="A41" s="14"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
     </row>
     <row r="42" spans="1:9" ht="21.3">
       <c r="A42" s="14"/>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="15" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="16"/>
-      <c r="H42" s="48" t="s">
+      <c r="H42" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="49"/>
+      <c r="I42" s="45"/>
     </row>
     <row r="43" spans="1:9" ht="21.3">
       <c r="A43" s="14"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
       <c r="F43" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
     </row>
     <row r="44" spans="1:9" ht="21.3">
       <c r="A44" s="14"/>
@@ -1488,8 +1494,8 @@
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="30"/>
     </row>
     <row r="45" spans="1:9" ht="21.3">
       <c r="A45" s="14"/>
@@ -1499,8 +1505,8 @@
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="41"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:9" ht="21.3">
       <c r="A46" s="14"/>
@@ -1510,8 +1516,8 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="62"/>
     </row>
     <row r="47" spans="1:9" ht="21.3">
       <c r="A47" s="14"/>
@@ -1551,84 +1557,117 @@
       <c r="B54" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="35" t="s">
+      <c r="D54" s="33"/>
+      <c r="E54" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="36"/>
-      <c r="G54" s="28" t="s">
+      <c r="F54" s="33"/>
+      <c r="G54" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="29"/>
+      <c r="H54" s="55"/>
     </row>
     <row r="55" spans="2:8" ht="51.35" customHeight="1">
       <c r="B55" s="13">
         <v>200</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="58"/>
+      <c r="E55" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="61" t="s">
+      <c r="F55" s="60"/>
+      <c r="G55" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="62"/>
-      <c r="G55" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="H55" s="31"/>
+      <c r="H55" s="41"/>
     </row>
     <row r="56" spans="2:8" s="24" customFormat="1">
       <c r="B56" s="25">
         <v>400</v>
       </c>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="60"/>
-      <c r="G56" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="H56" s="31"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="H56" s="41"/>
     </row>
     <row r="57" spans="2:8" s="24" customFormat="1">
       <c r="B57" s="25">
         <v>404</v>
       </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="44"/>
-      <c r="F57" s="45"/>
-      <c r="G57" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="H57" s="31"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="41"/>
     </row>
     <row r="58" spans="2:8" s="24" customFormat="1">
       <c r="B58" s="25">
         <v>500</v>
       </c>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="44"/>
-      <c r="F58" s="45"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="27"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="36"/>
+      <c r="H58" s="37"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59" s="11"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="32"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="49"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F29:G30"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="C19:D19"/>
@@ -1645,39 +1684,6 @@
     <mergeCell ref="H42:I43"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F29:G30"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="C56:D56"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
